--- a/开发内容/质检内容配置.xlsx
+++ b/开发内容/质检内容配置.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CartographicGeneralizationSystem\trunk\Template\地理实体缩编综合系统\质检\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EEB51D-4CD0-42A7-80D4-3ED25D6E7BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906A1AC4-C87A-4246-BEA5-DAA76FE0694E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="24510" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="24510" windowHeight="15990" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="点拓扑检查" sheetId="1" r:id="rId1"/>
     <sheet name="要素分层检查_25W" sheetId="6" r:id="rId2"/>
-    <sheet name="跨图层线交叉检查" sheetId="7" r:id="rId3"/>
-    <sheet name="跨图层线重叠检查" sheetId="8" r:id="rId4"/>
+    <sheet name="水系跨图层线交叉检查" sheetId="7" r:id="rId3"/>
+    <sheet name="水系桥梁涵洞线跨图层线重叠检查" sheetId="8" r:id="rId4"/>
     <sheet name="设施套路水" sheetId="3" r:id="rId5"/>
     <sheet name="微短要素检查" sheetId="4" r:id="rId6"/>
     <sheet name="线线套合拓扑检查" sheetId="5" r:id="rId7"/>
     <sheet name="面要素宽度指标检查" sheetId="2" r:id="rId8"/>
+    <sheet name="水系附属设施" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="292">
   <si>
     <t>ID</t>
   </si>
@@ -897,10 +898,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>跨图层线交叉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -909,11 +906,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RG_DM_L</t>
+    <t>跨图层线重叠</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>跨图层线重叠</t>
+    <t>RG_GDJT_L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilterString</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beizhu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水系跨图层线交叉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +941,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;公&quot;&quot;路&quot;&quot;桥&quot;&quot;与&quot;0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +982,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1044,7 +1067,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,6 +1121,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1904,7 +1930,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1926,7 +1952,7 @@
         <v>278</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1946,27 +1972,27 @@
         <v>282</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>285</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>284</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>282</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>282</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1980,7 +2006,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2002,7 +2028,7 @@
         <v>278</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2022,7 +2048,7 @@
         <v>282</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2030,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>282</v>
@@ -2042,7 +2068,7 @@
         <v>282</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3539,7 +3565,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3583,4 +3609,45 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B39E3DF-D395-42FE-AA79-B5D523244F32}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/开发内容/质检内容配置.xlsx
+++ b/开发内容/质检内容配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CartographicGeneralizationSystem\trunk\Template\地理实体缩编综合系统\质检\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906A1AC4-C87A-4246-BEA5-DAA76FE0694E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99568748-D1CD-41A5-8645-24203E6DA380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="24510" windowHeight="15990" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="24510" windowHeight="15990" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="点拓扑检查" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="线线套合拓扑检查" sheetId="5" r:id="rId7"/>
     <sheet name="面要素宽度指标检查" sheetId="2" r:id="rId8"/>
     <sheet name="水系附属设施" sheetId="9" r:id="rId9"/>
+    <sheet name="沟渠符号流向一致检查" sheetId="10" r:id="rId10"/>
+    <sheet name="符号混用检查" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="300">
   <si>
     <t>ID</t>
   </si>
@@ -926,11 +928,43 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ABC</t>
+    <t>水系跨图层线交叉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_FZ_A</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>水系跨图层线交叉</t>
+    <t>GB = '210101'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟渠流向与运河</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线层条件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZR_HL_L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RG_GQ_L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB = '261302'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB = '220100'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟渠流向与地面河流</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1101,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1157,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1590,6 +1627,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D22206-A631-4839-B7F8-6CCC13F86541}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3069F26A-937A-4D5F-B3DC-83DB03B0990F}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DFD7A-04B2-4D21-ABE4-6385F918DD32}">
   <dimension ref="A1:C29"/>
@@ -1972,7 +2121,7 @@
         <v>282</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1992,7 +2141,7 @@
         <v>282</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAF8007-5C0D-4F52-B1AA-63EFA7523FEF}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3105,7 +3254,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3765,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3640,11 +3789,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>290</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D2" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
